--- a/CashFlow/RNG_cashflow.xlsx
+++ b/CashFlow/RNG_cashflow.xlsx
@@ -914,19 +914,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>21916000.0</v>
+        <v>163000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>16307000.0</v>
+        <v>144000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>27856000.0</v>
+        <v>123702000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>34550000.0</v>
+        <v>92535000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>33559000.0</v>
+        <v>57432000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>28173000.0</v>
